--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.251817</v>
+        <v>3.1358715</v>
       </c>
       <c r="H2">
-        <v>8.503634</v>
+        <v>6.271743000000001</v>
       </c>
       <c r="I2">
-        <v>0.1861558314838932</v>
+        <v>0.1851936164128898</v>
       </c>
       <c r="J2">
-        <v>0.1536281284831583</v>
+        <v>0.1557817298248122</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.028072</v>
       </c>
       <c r="O2">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P2">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q2">
-        <v>0.03978566894133333</v>
+        <v>0.029343394916</v>
       </c>
       <c r="R2">
-        <v>0.238714013648</v>
+        <v>0.176060369496</v>
       </c>
       <c r="S2">
-        <v>0.02025883505104032</v>
+        <v>0.007239940618191981</v>
       </c>
       <c r="T2">
-        <v>0.02378421401898932</v>
+        <v>0.008960031634202873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.251817</v>
+        <v>3.1358715</v>
       </c>
       <c r="H3">
-        <v>8.503634</v>
+        <v>6.271743000000001</v>
       </c>
       <c r="I3">
-        <v>0.1861558314838932</v>
+        <v>0.1851936164128898</v>
       </c>
       <c r="J3">
-        <v>0.1536281284831583</v>
+        <v>0.1557817298248122</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N3">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O3">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P3">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q3">
-        <v>0.325799729442</v>
+        <v>0.7212441732570001</v>
       </c>
       <c r="R3">
-        <v>1.303198917768</v>
+        <v>2.884976693028</v>
       </c>
       <c r="S3">
-        <v>0.1658969964328529</v>
+        <v>0.1779536757946979</v>
       </c>
       <c r="T3">
-        <v>0.129843914464169</v>
+        <v>0.1468216981906093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>18.326072</v>
       </c>
       <c r="I4">
-        <v>0.2674546882735619</v>
+        <v>0.360757931601364</v>
       </c>
       <c r="J4">
-        <v>0.3310819990380124</v>
+        <v>0.4551951821134977</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,10 +691,10 @@
         <v>0.028072</v>
       </c>
       <c r="O4">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P4">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q4">
         <v>0.05716105479822223</v>
@@ -703,10 +703,10 @@
         <v>0.514449493184</v>
       </c>
       <c r="S4">
-        <v>0.02910636948716973</v>
+        <v>0.01410343430257593</v>
       </c>
       <c r="T4">
-        <v>0.05125705299350932</v>
+        <v>0.02618126808618903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>18.326072</v>
       </c>
       <c r="I5">
-        <v>0.2674546882735619</v>
+        <v>0.360757931601364</v>
       </c>
       <c r="J5">
-        <v>0.3310819990380124</v>
+        <v>0.4551951821134977</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N5">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O5">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P5">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q5">
-        <v>0.468084531024</v>
+        <v>1.404986635952</v>
       </c>
       <c r="R5">
-        <v>2.808507186144</v>
+        <v>8.429919815712001</v>
       </c>
       <c r="S5">
-        <v>0.2383483187863922</v>
+        <v>0.3466544972987881</v>
       </c>
       <c r="T5">
-        <v>0.2798249460445031</v>
+        <v>0.4290139140273087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2642203333333333</v>
+        <v>0.208691</v>
       </c>
       <c r="H6">
-        <v>0.7926610000000001</v>
+        <v>0.626073</v>
       </c>
       <c r="I6">
-        <v>0.01156826736583868</v>
+        <v>0.01232456145056403</v>
       </c>
       <c r="J6">
-        <v>0.01432035127000865</v>
+        <v>0.01555081815957854</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.028072</v>
       </c>
       <c r="O6">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P6">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q6">
-        <v>0.002472397732444444</v>
+        <v>0.001952791250666667</v>
       </c>
       <c r="R6">
-        <v>0.02225157959200001</v>
+        <v>0.017575121256</v>
       </c>
       <c r="S6">
-        <v>0.001258943211838819</v>
+        <v>0.0004818151660714103</v>
       </c>
       <c r="T6">
-        <v>0.00221703084451966</v>
+        <v>0.0008944298076818987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2642203333333333</v>
+        <v>0.208691</v>
       </c>
       <c r="H7">
-        <v>0.7926610000000001</v>
+        <v>0.626073</v>
       </c>
       <c r="I7">
-        <v>0.01156826736583868</v>
+        <v>0.01232456145056403</v>
       </c>
       <c r="J7">
-        <v>0.01432035127000865</v>
+        <v>0.01555081815957854</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N7">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O7">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P7">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q7">
-        <v>0.020246147262</v>
+        <v>0.047998512618</v>
       </c>
       <c r="R7">
-        <v>0.121476883572</v>
+        <v>0.287991075708</v>
       </c>
       <c r="S7">
-        <v>0.01030932415399986</v>
+        <v>0.01184274628449262</v>
       </c>
       <c r="T7">
-        <v>0.01210332042548899</v>
+        <v>0.01465638835189665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.916406</v>
+        <v>7.403123000000001</v>
       </c>
       <c r="H8">
-        <v>17.832812</v>
+        <v>14.806246</v>
       </c>
       <c r="I8">
-        <v>0.3903839165180379</v>
+        <v>0.437202583434762</v>
       </c>
       <c r="J8">
-        <v>0.3221706782243929</v>
+        <v>0.3677673996035402</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,22 +939,22 @@
         <v>0.028072</v>
       </c>
       <c r="O8">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P8">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q8">
-        <v>0.08343378307733335</v>
+        <v>0.06927348961866668</v>
       </c>
       <c r="R8">
-        <v>0.5006026984640001</v>
+        <v>0.4156409377120001</v>
       </c>
       <c r="S8">
-        <v>0.04248442451829565</v>
+        <v>0.01709195383457877</v>
       </c>
       <c r="T8">
-        <v>0.04987743089229863</v>
+        <v>0.0211527214274867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.916406</v>
+        <v>7.403123000000001</v>
       </c>
       <c r="H9">
-        <v>17.832812</v>
+        <v>14.806246</v>
       </c>
       <c r="I9">
-        <v>0.3903839165180379</v>
+        <v>0.437202583434762</v>
       </c>
       <c r="J9">
-        <v>0.3221706782243929</v>
+        <v>0.3677673996035402</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N9">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O9">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P9">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q9">
-        <v>0.683228526156</v>
+        <v>1.702703483754</v>
       </c>
       <c r="R9">
-        <v>2.732914104624</v>
+        <v>6.810813935016001</v>
       </c>
       <c r="S9">
-        <v>0.3478994919997423</v>
+        <v>0.4201106296001833</v>
       </c>
       <c r="T9">
-        <v>0.2722932473320943</v>
+        <v>0.3466146781760535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.556341666666667</v>
+        <v>0.05791866666666667</v>
       </c>
       <c r="H10">
-        <v>7.669025</v>
+        <v>0.173756</v>
       </c>
       <c r="I10">
-        <v>0.1119234220370385</v>
+        <v>0.003420474129061952</v>
       </c>
       <c r="J10">
-        <v>0.1385499373609627</v>
+        <v>0.004315867255313246</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.028072</v>
       </c>
       <c r="O10">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P10">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q10">
-        <v>0.02392054108888889</v>
+        <v>0.0005419642702222223</v>
       </c>
       <c r="R10">
-        <v>0.2152848698</v>
+        <v>0.004877678432000001</v>
       </c>
       <c r="S10">
-        <v>0.01218032294407344</v>
+        <v>0.0001337196716611385</v>
       </c>
       <c r="T10">
-        <v>0.02144985683967344</v>
+        <v>0.0002482339050934571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.556341666666667</v>
+        <v>0.05791866666666667</v>
       </c>
       <c r="H11">
-        <v>7.669025</v>
+        <v>0.173756</v>
       </c>
       <c r="I11">
-        <v>0.1119234220370385</v>
+        <v>0.003420474129061952</v>
       </c>
       <c r="J11">
-        <v>0.1385499373609627</v>
+        <v>0.004315867255313246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N11">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O11">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P11">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q11">
-        <v>0.19588223655</v>
+        <v>0.013321177496</v>
       </c>
       <c r="R11">
-        <v>1.1752934193</v>
+        <v>0.07992706497600001</v>
       </c>
       <c r="S11">
-        <v>0.09974309909296504</v>
+        <v>0.003286754457400814</v>
       </c>
       <c r="T11">
-        <v>0.1171000805212893</v>
+        <v>0.004067633350219788</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.7426199999999999</v>
+        <v>0.01864033333333333</v>
       </c>
       <c r="H12">
-        <v>2.22786</v>
+        <v>0.055921</v>
       </c>
       <c r="I12">
-        <v>0.03251387432162973</v>
+        <v>0.001100832971357958</v>
       </c>
       <c r="J12">
-        <v>0.04024890562346509</v>
+        <v>0.001389003043258201</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.028072</v>
       </c>
       <c r="O12">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P12">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q12">
-        <v>0.00694894288</v>
+        <v>0.0001744238124444445</v>
       </c>
       <c r="R12">
-        <v>0.06254048592</v>
+        <v>0.001569814312</v>
       </c>
       <c r="S12">
-        <v>0.003538396898456251</v>
+        <v>4.303585348973576E-05</v>
       </c>
       <c r="T12">
-        <v>0.006231206451776446</v>
+        <v>7.989069848944045E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.7426199999999999</v>
+        <v>0.01864033333333333</v>
       </c>
       <c r="H13">
-        <v>2.22786</v>
+        <v>0.055921</v>
       </c>
       <c r="I13">
-        <v>0.03251387432162973</v>
+        <v>0.001100832971357958</v>
       </c>
       <c r="J13">
-        <v>0.04024890562346509</v>
+        <v>0.001389003043258201</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N13">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O13">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P13">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q13">
-        <v>0.05690400011999999</v>
+        <v>0.004287239386</v>
       </c>
       <c r="R13">
-        <v>0.34142400072</v>
+        <v>0.025723436316</v>
       </c>
       <c r="S13">
-        <v>0.02897547742317349</v>
+        <v>0.001057797117868222</v>
       </c>
       <c r="T13">
-        <v>0.03401769917168865</v>
+        <v>0.001309112344768761</v>
       </c>
     </row>
   </sheetData>
